--- a/SubRES_Tmpl/SubRES_dem-Transport_trans.xlsx
+++ b/SubRES_Tmpl/SubRES_dem-Transport_trans.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\osemosys_India\SubRES_Tmpl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\osemosys_India\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD221A3C-83D1-4DF8-865F-991470749DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF551A9-477C-4C36-98F3-80B739ED457C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TechSelection" sheetId="21" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>*</t>
   </si>
@@ -144,6 +144,18 @@
   <si>
     <t>Trd*</t>
   </si>
+  <si>
+    <t>ACT_BND</t>
+  </si>
+  <si>
+    <t>pset_ci</t>
+  </si>
+  <si>
+    <t>limtype</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
 </sst>
 </file>
 
@@ -212,7 +224,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -331,9 +343,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -371,9 +383,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -406,9 +418,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -441,9 +470,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -622,34 +668,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.73046875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.73046875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="10.73046875" style="2" customWidth="1"/>
-    <col min="23" max="23" width="13.1328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="259" width="11.3984375" style="2" customWidth="1"/>
-    <col min="260" max="16384" width="9.1328125" style="2"/>
+    <col min="21" max="21" width="11.7109375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="259" width="11.42578125" style="2" customWidth="1"/>
+    <col min="260" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1"/>
@@ -672,7 +718,7 @@
       <c r="T1"/>
       <c r="U1"/>
     </row>
-    <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -695,7 +741,7 @@
       <c r="T2"/>
       <c r="U2"/>
     </row>
-    <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -726,7 +772,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -759,7 +805,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -792,7 +838,7 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -821,7 +867,7 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -850,7 +896,7 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -879,7 +925,7 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -908,7 +954,7 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -937,7 +983,7 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -966,7 +1012,7 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
-    <row r="12" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -995,7 +1041,7 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
     </row>
-    <row r="13" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -1024,7 +1070,7 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -1053,7 +1099,7 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -1082,7 +1128,7 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -1111,7 +1157,7 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -1140,7 +1186,7 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
     </row>
-    <row r="18" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -1169,7 +1215,7 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -1198,7 +1244,7 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1227,7 +1273,7 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
-    <row r="21" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -1256,7 +1302,7 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -1285,7 +1331,7 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
-    <row r="23" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -1314,7 +1360,7 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
-    <row r="24" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -1343,7 +1389,7 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
-    <row r="25" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -1372,7 +1418,7 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -1401,7 +1447,7 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
-    <row r="27" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -1430,7 +1476,7 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
     </row>
-    <row r="28" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -1459,7 +1505,7 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -1488,7 +1534,7 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
     </row>
-    <row r="30" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30"/>
       <c r="H30" s="1"/>
@@ -1512,7 +1558,7 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
     </row>
-    <row r="31" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31"/>
       <c r="H31" s="1"/>
@@ -1536,7 +1582,7 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
     </row>
-    <row r="32" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
       <c r="H32" s="1"/>
@@ -1560,7 +1606,7 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
     </row>
-    <row r="33" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33"/>
       <c r="H33" s="1"/>
@@ -1584,7 +1630,7 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="34" spans="1:27" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34"/>
       <c r="H34" s="1"/>
@@ -1608,7 +1654,7 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1630,7 +1676,7 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1652,7 +1698,7 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1674,7 +1720,7 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -1696,7 +1742,7 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -1718,7 +1764,7 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -1740,7 +1786,7 @@
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -1762,7 +1808,7 @@
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -1784,7 +1830,7 @@
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -1806,7 +1852,7 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -1828,7 +1874,7 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -1850,7 +1896,7 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -1872,7 +1918,7 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -1894,7 +1940,7 @@
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -1916,7 +1962,7 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
     </row>
-    <row r="49" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="49" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -1938,7 +1984,7 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
     </row>
-    <row r="50" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="50" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -1960,7 +2006,7 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
     </row>
-    <row r="51" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="51" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -1982,7 +2028,7 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
     </row>
-    <row r="52" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="52" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -2004,7 +2050,7 @@
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
     </row>
-    <row r="53" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="53" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -2026,7 +2072,7 @@
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
     </row>
-    <row r="54" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="54" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -2048,7 +2094,7 @@
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
     </row>
-    <row r="55" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="55" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -2070,7 +2116,7 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
     </row>
-    <row r="56" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="56" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -2092,7 +2138,7 @@
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
     </row>
-    <row r="57" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="57" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -2114,7 +2160,7 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
     </row>
-    <row r="58" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="58" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -2136,7 +2182,7 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
     </row>
-    <row r="59" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="59" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -2158,7 +2204,7 @@
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
     </row>
-    <row r="60" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="60" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -2180,7 +2226,7 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
     </row>
-    <row r="61" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="61" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -2202,7 +2248,7 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
     </row>
-    <row r="62" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="62" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -2224,7 +2270,7 @@
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
     </row>
-    <row r="63" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="63" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -2246,7 +2292,7 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
     </row>
-    <row r="64" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="64" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -2268,7 +2314,7 @@
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
     </row>
-    <row r="65" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="65" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -2290,7 +2336,7 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
     </row>
-    <row r="66" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="66" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -2312,7 +2358,7 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
     </row>
-    <row r="67" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="67" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -2334,7 +2380,7 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
     </row>
-    <row r="68" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="68" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -2356,7 +2402,7 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
     </row>
-    <row r="69" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="69" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -2378,7 +2424,7 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
     </row>
-    <row r="70" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="70" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -2400,7 +2446,7 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
     </row>
-    <row r="71" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="71" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -2422,7 +2468,7 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
     </row>
-    <row r="72" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="72" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -2444,7 +2490,7 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
     </row>
-    <row r="73" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="73" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -2466,7 +2512,7 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
     </row>
-    <row r="74" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="74" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -2488,7 +2534,7 @@
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
     </row>
-    <row r="75" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="75" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -2510,7 +2556,7 @@
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
     </row>
-    <row r="76" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="76" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -2532,7 +2578,7 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
     </row>
-    <row r="77" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="77" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -2554,7 +2600,7 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
     </row>
-    <row r="78" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="78" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -2576,7 +2622,7 @@
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
     </row>
-    <row r="79" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="79" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -2598,7 +2644,7 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
     </row>
-    <row r="80" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="80" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -2620,7 +2666,7 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
     </row>
-    <row r="81" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="81" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -2642,7 +2688,7 @@
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
     </row>
-    <row r="82" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="82" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -2664,7 +2710,7 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
     </row>
-    <row r="83" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="83" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -2686,7 +2732,7 @@
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
     </row>
-    <row r="84" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="84" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -2708,7 +2754,7 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
     </row>
-    <row r="85" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="85" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -2730,7 +2776,7 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
     </row>
-    <row r="86" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="86" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -2752,7 +2798,7 @@
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
     </row>
-    <row r="87" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="87" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -2774,7 +2820,7 @@
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
     </row>
-    <row r="88" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="88" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -2796,7 +2842,7 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
     </row>
-    <row r="89" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="89" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
@@ -2818,7 +2864,7 @@
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
     </row>
-    <row r="90" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="90" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
@@ -2840,7 +2886,7 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
     </row>
-    <row r="91" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="91" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
@@ -2862,7 +2908,7 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
     </row>
-    <row r="92" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="92" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
@@ -2884,7 +2930,7 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
     </row>
-    <row r="93" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="93" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
@@ -2906,7 +2952,7 @@
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
     </row>
-    <row r="94" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="94" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
@@ -2928,7 +2974,7 @@
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
     </row>
-    <row r="95" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="95" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
@@ -2950,7 +2996,7 @@
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
     </row>
-    <row r="96" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="96" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
@@ -2972,7 +3018,7 @@
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
     </row>
-    <row r="97" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="97" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
@@ -2994,7 +3040,7 @@
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
     </row>
-    <row r="98" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="98" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
@@ -3016,7 +3062,7 @@
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
     </row>
-    <row r="99" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="99" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
@@ -3038,7 +3084,7 @@
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
     </row>
-    <row r="100" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="100" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -3060,7 +3106,7 @@
       <c r="Z100" s="1"/>
       <c r="AA100" s="1"/>
     </row>
-    <row r="101" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="101" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -3082,7 +3128,7 @@
       <c r="Z101" s="1"/>
       <c r="AA101" s="1"/>
     </row>
-    <row r="102" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="102" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
@@ -3104,7 +3150,7 @@
       <c r="Z102" s="1"/>
       <c r="AA102" s="1"/>
     </row>
-    <row r="103" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="103" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -3126,7 +3172,7 @@
       <c r="Z103" s="1"/>
       <c r="AA103" s="1"/>
     </row>
-    <row r="104" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="104" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -3148,7 +3194,7 @@
       <c r="Z104" s="1"/>
       <c r="AA104" s="1"/>
     </row>
-    <row r="105" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="105" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -3170,7 +3216,7 @@
       <c r="Z105" s="1"/>
       <c r="AA105" s="1"/>
     </row>
-    <row r="106" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="106" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
@@ -3192,7 +3238,7 @@
       <c r="Z106" s="1"/>
       <c r="AA106" s="1"/>
     </row>
-    <row r="107" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="107" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -3214,7 +3260,7 @@
       <c r="Z107" s="1"/>
       <c r="AA107" s="1"/>
     </row>
-    <row r="108" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="108" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
@@ -3236,7 +3282,7 @@
       <c r="Z108" s="1"/>
       <c r="AA108" s="1"/>
     </row>
-    <row r="109" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="109" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
@@ -3258,7 +3304,7 @@
       <c r="Z109" s="1"/>
       <c r="AA109" s="1"/>
     </row>
-    <row r="110" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="110" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
@@ -3280,7 +3326,7 @@
       <c r="Z110" s="1"/>
       <c r="AA110" s="1"/>
     </row>
-    <row r="111" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="111" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
@@ -3302,7 +3348,7 @@
       <c r="Z111" s="1"/>
       <c r="AA111" s="1"/>
     </row>
-    <row r="112" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="112" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
@@ -3324,7 +3370,7 @@
       <c r="Z112" s="1"/>
       <c r="AA112" s="1"/>
     </row>
-    <row r="113" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="113" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
@@ -3346,7 +3392,7 @@
       <c r="Z113" s="1"/>
       <c r="AA113" s="1"/>
     </row>
-    <row r="114" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="114" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
@@ -3368,7 +3414,7 @@
       <c r="Z114" s="1"/>
       <c r="AA114" s="1"/>
     </row>
-    <row r="115" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="115" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -3390,7 +3436,7 @@
       <c r="Z115" s="1"/>
       <c r="AA115" s="1"/>
     </row>
-    <row r="116" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="116" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
@@ -3412,7 +3458,7 @@
       <c r="Z116" s="1"/>
       <c r="AA116" s="1"/>
     </row>
-    <row r="117" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="117" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
@@ -3434,7 +3480,7 @@
       <c r="Z117" s="1"/>
       <c r="AA117" s="1"/>
     </row>
-    <row r="118" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="118" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
@@ -3456,7 +3502,7 @@
       <c r="Z118" s="1"/>
       <c r="AA118" s="1"/>
     </row>
-    <row r="119" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="119" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
@@ -3478,7 +3524,7 @@
       <c r="Z119" s="1"/>
       <c r="AA119" s="1"/>
     </row>
-    <row r="120" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="120" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
@@ -3500,7 +3546,7 @@
       <c r="Z120" s="1"/>
       <c r="AA120" s="1"/>
     </row>
-    <row r="121" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="121" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
@@ -3522,7 +3568,7 @@
       <c r="Z121" s="1"/>
       <c r="AA121" s="1"/>
     </row>
-    <row r="122" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="122" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
@@ -3544,7 +3590,7 @@
       <c r="Z122" s="1"/>
       <c r="AA122" s="1"/>
     </row>
-    <row r="123" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="123" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
@@ -3566,7 +3612,7 @@
       <c r="Z123" s="1"/>
       <c r="AA123" s="1"/>
     </row>
-    <row r="124" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="124" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
@@ -3588,7 +3634,7 @@
       <c r="Z124" s="1"/>
       <c r="AA124" s="1"/>
     </row>
-    <row r="125" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="125" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
@@ -3610,7 +3656,7 @@
       <c r="Z125" s="1"/>
       <c r="AA125" s="1"/>
     </row>
-    <row r="126" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="126" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
@@ -3632,7 +3678,7 @@
       <c r="Z126" s="1"/>
       <c r="AA126" s="1"/>
     </row>
-    <row r="127" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="127" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
@@ -3654,7 +3700,7 @@
       <c r="Z127" s="1"/>
       <c r="AA127" s="1"/>
     </row>
-    <row r="128" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="128" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
@@ -3676,7 +3722,7 @@
       <c r="Z128" s="1"/>
       <c r="AA128" s="1"/>
     </row>
-    <row r="129" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="129" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
@@ -3698,7 +3744,7 @@
       <c r="Z129" s="1"/>
       <c r="AA129" s="1"/>
     </row>
-    <row r="130" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="130" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
@@ -3720,7 +3766,7 @@
       <c r="Z130" s="1"/>
       <c r="AA130" s="1"/>
     </row>
-    <row r="131" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="131" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
@@ -3742,7 +3788,7 @@
       <c r="Z131" s="1"/>
       <c r="AA131" s="1"/>
     </row>
-    <row r="132" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="132" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
@@ -3764,7 +3810,7 @@
       <c r="Z132" s="1"/>
       <c r="AA132" s="1"/>
     </row>
-    <row r="133" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="133" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
@@ -3786,7 +3832,7 @@
       <c r="Z133" s="1"/>
       <c r="AA133" s="1"/>
     </row>
-    <row r="134" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="134" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
@@ -3808,7 +3854,7 @@
       <c r="Z134" s="1"/>
       <c r="AA134" s="1"/>
     </row>
-    <row r="135" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="135" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
@@ -3830,7 +3876,7 @@
       <c r="Z135" s="1"/>
       <c r="AA135" s="1"/>
     </row>
-    <row r="136" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="136" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
@@ -3852,7 +3898,7 @@
       <c r="Z136" s="1"/>
       <c r="AA136" s="1"/>
     </row>
-    <row r="137" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="137" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
@@ -3874,7 +3920,7 @@
       <c r="Z137" s="1"/>
       <c r="AA137" s="1"/>
     </row>
-    <row r="138" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="138" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
@@ -3896,7 +3942,7 @@
       <c r="Z138" s="1"/>
       <c r="AA138" s="1"/>
     </row>
-    <row r="139" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="139" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
@@ -3918,7 +3964,7 @@
       <c r="Z139" s="1"/>
       <c r="AA139" s="1"/>
     </row>
-    <row r="140" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="140" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
@@ -3940,7 +3986,7 @@
       <c r="Z140" s="1"/>
       <c r="AA140" s="1"/>
     </row>
-    <row r="141" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="141" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
@@ -3962,7 +4008,7 @@
       <c r="Z141" s="1"/>
       <c r="AA141" s="1"/>
     </row>
-    <row r="142" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="142" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
@@ -3984,7 +4030,7 @@
       <c r="Z142" s="1"/>
       <c r="AA142" s="1"/>
     </row>
-    <row r="143" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="143" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
@@ -4006,7 +4052,7 @@
       <c r="Z143" s="1"/>
       <c r="AA143" s="1"/>
     </row>
-    <row r="144" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="144" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
@@ -4028,7 +4074,7 @@
       <c r="Z144" s="1"/>
       <c r="AA144" s="1"/>
     </row>
-    <row r="145" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="145" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
@@ -4050,7 +4096,7 @@
       <c r="Z145" s="1"/>
       <c r="AA145" s="1"/>
     </row>
-    <row r="146" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="146" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
@@ -4072,7 +4118,7 @@
       <c r="Z146" s="1"/>
       <c r="AA146" s="1"/>
     </row>
-    <row r="147" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="147" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
@@ -4094,7 +4140,7 @@
       <c r="Z147" s="1"/>
       <c r="AA147" s="1"/>
     </row>
-    <row r="148" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="148" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
@@ -4116,7 +4162,7 @@
       <c r="Z148" s="1"/>
       <c r="AA148" s="1"/>
     </row>
-    <row r="149" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="149" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
@@ -4138,7 +4184,7 @@
       <c r="Z149" s="1"/>
       <c r="AA149" s="1"/>
     </row>
-    <row r="150" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="150" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
@@ -4160,7 +4206,7 @@
       <c r="Z150" s="1"/>
       <c r="AA150" s="1"/>
     </row>
-    <row r="151" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="151" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
@@ -4182,7 +4228,7 @@
       <c r="Z151" s="1"/>
       <c r="AA151" s="1"/>
     </row>
-    <row r="152" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="152" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
@@ -4204,7 +4250,7 @@
       <c r="Z152" s="1"/>
       <c r="AA152" s="1"/>
     </row>
-    <row r="153" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="153" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
@@ -4226,7 +4272,7 @@
       <c r="Z153" s="1"/>
       <c r="AA153" s="1"/>
     </row>
-    <row r="154" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="154" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
@@ -4248,7 +4294,7 @@
       <c r="Z154" s="1"/>
       <c r="AA154" s="1"/>
     </row>
-    <row r="155" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="155" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
@@ -4270,7 +4316,7 @@
       <c r="Z155" s="1"/>
       <c r="AA155" s="1"/>
     </row>
-    <row r="156" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="156" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
@@ -4292,7 +4338,7 @@
       <c r="Z156" s="1"/>
       <c r="AA156" s="1"/>
     </row>
-    <row r="157" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="157" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
@@ -4314,7 +4360,7 @@
       <c r="Z157" s="1"/>
       <c r="AA157" s="1"/>
     </row>
-    <row r="158" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="158" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
@@ -4336,7 +4382,7 @@
       <c r="Z158" s="1"/>
       <c r="AA158" s="1"/>
     </row>
-    <row r="159" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="159" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
@@ -4358,7 +4404,7 @@
       <c r="Z159" s="1"/>
       <c r="AA159" s="1"/>
     </row>
-    <row r="160" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="160" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
@@ -4380,7 +4426,7 @@
       <c r="Z160" s="1"/>
       <c r="AA160" s="1"/>
     </row>
-    <row r="161" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="161" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
@@ -4402,7 +4448,7 @@
       <c r="Z161" s="1"/>
       <c r="AA161" s="1"/>
     </row>
-    <row r="162" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="162" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
@@ -4424,7 +4470,7 @@
       <c r="Z162" s="1"/>
       <c r="AA162" s="1"/>
     </row>
-    <row r="163" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="163" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
@@ -4446,7 +4492,7 @@
       <c r="Z163" s="1"/>
       <c r="AA163" s="1"/>
     </row>
-    <row r="164" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="164" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
@@ -4468,7 +4514,7 @@
       <c r="Z164" s="1"/>
       <c r="AA164" s="1"/>
     </row>
-    <row r="165" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="165" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
@@ -4490,7 +4536,7 @@
       <c r="Z165" s="1"/>
       <c r="AA165" s="1"/>
     </row>
-    <row r="166" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="166" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
@@ -4512,7 +4558,7 @@
       <c r="Z166" s="1"/>
       <c r="AA166" s="1"/>
     </row>
-    <row r="167" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="167" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
@@ -4534,7 +4580,7 @@
       <c r="Z167" s="1"/>
       <c r="AA167" s="1"/>
     </row>
-    <row r="168" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="168" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
@@ -4556,7 +4602,7 @@
       <c r="Z168" s="1"/>
       <c r="AA168" s="1"/>
     </row>
-    <row r="169" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="169" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
@@ -4578,7 +4624,7 @@
       <c r="Z169" s="1"/>
       <c r="AA169" s="1"/>
     </row>
-    <row r="170" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="170" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
@@ -4600,7 +4646,7 @@
       <c r="Z170" s="1"/>
       <c r="AA170" s="1"/>
     </row>
-    <row r="171" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="171" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
@@ -4622,7 +4668,7 @@
       <c r="Z171" s="1"/>
       <c r="AA171" s="1"/>
     </row>
-    <row r="172" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="172" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
@@ -4644,7 +4690,7 @@
       <c r="Z172" s="1"/>
       <c r="AA172" s="1"/>
     </row>
-    <row r="173" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="173" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
@@ -4666,7 +4712,7 @@
       <c r="Z173" s="1"/>
       <c r="AA173" s="1"/>
     </row>
-    <row r="174" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="174" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
@@ -4688,7 +4734,7 @@
       <c r="Z174" s="1"/>
       <c r="AA174" s="1"/>
     </row>
-    <row r="175" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="175" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
@@ -4710,7 +4756,7 @@
       <c r="Z175" s="1"/>
       <c r="AA175" s="1"/>
     </row>
-    <row r="176" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="176" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
@@ -4732,7 +4778,7 @@
       <c r="Z176" s="1"/>
       <c r="AA176" s="1"/>
     </row>
-    <row r="177" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="177" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
@@ -4754,7 +4800,7 @@
       <c r="Z177" s="1"/>
       <c r="AA177" s="1"/>
     </row>
-    <row r="178" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="178" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
@@ -4776,7 +4822,7 @@
       <c r="Z178" s="1"/>
       <c r="AA178" s="1"/>
     </row>
-    <row r="179" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="179" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
@@ -4798,7 +4844,7 @@
       <c r="Z179" s="1"/>
       <c r="AA179" s="1"/>
     </row>
-    <row r="180" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="180" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
@@ -4820,7 +4866,7 @@
       <c r="Z180" s="1"/>
       <c r="AA180" s="1"/>
     </row>
-    <row r="181" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="181" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
@@ -4842,7 +4888,7 @@
       <c r="Z181" s="1"/>
       <c r="AA181" s="1"/>
     </row>
-    <row r="182" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="182" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
@@ -4864,7 +4910,7 @@
       <c r="Z182" s="1"/>
       <c r="AA182" s="1"/>
     </row>
-    <row r="183" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="183" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
@@ -4886,7 +4932,7 @@
       <c r="Z183" s="1"/>
       <c r="AA183" s="1"/>
     </row>
-    <row r="184" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="184" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
@@ -4908,7 +4954,7 @@
       <c r="Z184" s="1"/>
       <c r="AA184" s="1"/>
     </row>
-    <row r="185" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="185" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
@@ -4930,7 +4976,7 @@
       <c r="Z185" s="1"/>
       <c r="AA185" s="1"/>
     </row>
-    <row r="186" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="186" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
@@ -4952,7 +4998,7 @@
       <c r="Z186" s="1"/>
       <c r="AA186" s="1"/>
     </row>
-    <row r="187" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="187" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
@@ -4974,7 +5020,7 @@
       <c r="Z187" s="1"/>
       <c r="AA187" s="1"/>
     </row>
-    <row r="188" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="188" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
@@ -4996,7 +5042,7 @@
       <c r="Z188" s="1"/>
       <c r="AA188" s="1"/>
     </row>
-    <row r="189" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="189" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
@@ -5018,7 +5064,7 @@
       <c r="Z189" s="1"/>
       <c r="AA189" s="1"/>
     </row>
-    <row r="190" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="190" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
@@ -5040,7 +5086,7 @@
       <c r="Z190" s="1"/>
       <c r="AA190" s="1"/>
     </row>
-    <row r="191" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="191" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
@@ -5062,7 +5108,7 @@
       <c r="Z191" s="1"/>
       <c r="AA191" s="1"/>
     </row>
-    <row r="192" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="192" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
@@ -5084,7 +5130,7 @@
       <c r="Z192" s="1"/>
       <c r="AA192" s="1"/>
     </row>
-    <row r="193" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="193" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
@@ -5106,7 +5152,7 @@
       <c r="Z193" s="1"/>
       <c r="AA193" s="1"/>
     </row>
-    <row r="194" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="194" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
@@ -5128,7 +5174,7 @@
       <c r="Z194" s="1"/>
       <c r="AA194" s="1"/>
     </row>
-    <row r="195" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="195" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
@@ -5150,7 +5196,7 @@
       <c r="Z195" s="1"/>
       <c r="AA195" s="1"/>
     </row>
-    <row r="196" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="196" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
@@ -5172,7 +5218,7 @@
       <c r="Z196" s="1"/>
       <c r="AA196" s="1"/>
     </row>
-    <row r="197" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="197" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
@@ -5194,7 +5240,7 @@
       <c r="Z197" s="1"/>
       <c r="AA197" s="1"/>
     </row>
-    <row r="198" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="198" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
@@ -5216,7 +5262,7 @@
       <c r="Z198" s="1"/>
       <c r="AA198" s="1"/>
     </row>
-    <row r="199" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="199" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
@@ -5238,7 +5284,7 @@
       <c r="Z199" s="1"/>
       <c r="AA199" s="1"/>
     </row>
-    <row r="200" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="200" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
@@ -5260,7 +5306,7 @@
       <c r="Z200" s="1"/>
       <c r="AA200" s="1"/>
     </row>
-    <row r="201" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="201" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
@@ -5282,7 +5328,7 @@
       <c r="Z201" s="1"/>
       <c r="AA201" s="1"/>
     </row>
-    <row r="202" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="202" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
@@ -5304,7 +5350,7 @@
       <c r="Z202" s="1"/>
       <c r="AA202" s="1"/>
     </row>
-    <row r="203" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="203" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
@@ -5326,7 +5372,7 @@
       <c r="Z203" s="1"/>
       <c r="AA203" s="1"/>
     </row>
-    <row r="204" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="204" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
@@ -5348,7 +5394,7 @@
       <c r="Z204" s="1"/>
       <c r="AA204" s="1"/>
     </row>
-    <row r="205" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="205" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
@@ -5370,7 +5416,7 @@
       <c r="Z205" s="1"/>
       <c r="AA205" s="1"/>
     </row>
-    <row r="206" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="206" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
@@ -5392,7 +5438,7 @@
       <c r="Z206" s="1"/>
       <c r="AA206" s="1"/>
     </row>
-    <row r="207" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="207" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
@@ -5414,7 +5460,7 @@
       <c r="Z207" s="1"/>
       <c r="AA207" s="1"/>
     </row>
-    <row r="208" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="208" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
@@ -5436,7 +5482,7 @@
       <c r="Z208" s="1"/>
       <c r="AA208" s="1"/>
     </row>
-    <row r="209" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="209" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
@@ -5458,7 +5504,7 @@
       <c r="Z209" s="1"/>
       <c r="AA209" s="1"/>
     </row>
-    <row r="210" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="210" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
@@ -5480,7 +5526,7 @@
       <c r="Z210" s="1"/>
       <c r="AA210" s="1"/>
     </row>
-    <row r="211" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="211" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
@@ -5502,7 +5548,7 @@
       <c r="Z211" s="1"/>
       <c r="AA211" s="1"/>
     </row>
-    <row r="212" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="212" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
@@ -5524,7 +5570,7 @@
       <c r="Z212" s="1"/>
       <c r="AA212" s="1"/>
     </row>
-    <row r="213" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="213" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
@@ -5546,7 +5592,7 @@
       <c r="Z213" s="1"/>
       <c r="AA213" s="1"/>
     </row>
-    <row r="214" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="214" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
@@ -5568,7 +5614,7 @@
       <c r="Z214" s="1"/>
       <c r="AA214" s="1"/>
     </row>
-    <row r="215" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="215" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
@@ -5590,7 +5636,7 @@
       <c r="Z215" s="1"/>
       <c r="AA215" s="1"/>
     </row>
-    <row r="216" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="216" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
@@ -5612,7 +5658,7 @@
       <c r="Z216" s="1"/>
       <c r="AA216" s="1"/>
     </row>
-    <row r="217" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="217" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
@@ -5634,7 +5680,7 @@
       <c r="Z217" s="1"/>
       <c r="AA217" s="1"/>
     </row>
-    <row r="218" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="218" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
@@ -5656,7 +5702,7 @@
       <c r="Z218" s="1"/>
       <c r="AA218" s="1"/>
     </row>
-    <row r="219" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="219" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
@@ -5678,7 +5724,7 @@
       <c r="Z219" s="1"/>
       <c r="AA219" s="1"/>
     </row>
-    <row r="220" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="220" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
@@ -5700,7 +5746,7 @@
       <c r="Z220" s="1"/>
       <c r="AA220" s="1"/>
     </row>
-    <row r="221" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="221" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
@@ -5722,7 +5768,7 @@
       <c r="Z221" s="1"/>
       <c r="AA221" s="1"/>
     </row>
-    <row r="222" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="222" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
@@ -5744,7 +5790,7 @@
       <c r="Z222" s="1"/>
       <c r="AA222" s="1"/>
     </row>
-    <row r="223" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="223" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
@@ -5766,7 +5812,7 @@
       <c r="Z223" s="1"/>
       <c r="AA223" s="1"/>
     </row>
-    <row r="224" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="224" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
@@ -5788,7 +5834,7 @@
       <c r="Z224" s="1"/>
       <c r="AA224" s="1"/>
     </row>
-    <row r="225" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="225" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
@@ -5810,7 +5856,7 @@
       <c r="Z225" s="1"/>
       <c r="AA225" s="1"/>
     </row>
-    <row r="226" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="226" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
@@ -5832,7 +5878,7 @@
       <c r="Z226" s="1"/>
       <c r="AA226" s="1"/>
     </row>
-    <row r="227" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="227" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
@@ -5854,7 +5900,7 @@
       <c r="Z227" s="1"/>
       <c r="AA227" s="1"/>
     </row>
-    <row r="228" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="228" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
@@ -5876,7 +5922,7 @@
       <c r="Z228" s="1"/>
       <c r="AA228" s="1"/>
     </row>
-    <row r="229" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="229" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
@@ -5898,7 +5944,7 @@
       <c r="Z229" s="1"/>
       <c r="AA229" s="1"/>
     </row>
-    <row r="230" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="230" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
@@ -5920,7 +5966,7 @@
       <c r="Z230" s="1"/>
       <c r="AA230" s="1"/>
     </row>
-    <row r="231" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="231" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
@@ -5942,7 +5988,7 @@
       <c r="Z231" s="1"/>
       <c r="AA231" s="1"/>
     </row>
-    <row r="232" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="232" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
@@ -5964,7 +6010,7 @@
       <c r="Z232" s="1"/>
       <c r="AA232" s="1"/>
     </row>
-    <row r="233" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="233" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
@@ -5986,7 +6032,7 @@
       <c r="Z233" s="1"/>
       <c r="AA233" s="1"/>
     </row>
-    <row r="234" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="234" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
@@ -6008,7 +6054,7 @@
       <c r="Z234" s="1"/>
       <c r="AA234" s="1"/>
     </row>
-    <row r="235" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="235" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
@@ -6030,7 +6076,7 @@
       <c r="Z235" s="1"/>
       <c r="AA235" s="1"/>
     </row>
-    <row r="236" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="236" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
@@ -6052,7 +6098,7 @@
       <c r="Z236" s="1"/>
       <c r="AA236" s="1"/>
     </row>
-    <row r="237" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="237" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
@@ -6074,7 +6120,7 @@
       <c r="Z237" s="1"/>
       <c r="AA237" s="1"/>
     </row>
-    <row r="238" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="238" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
@@ -6096,7 +6142,7 @@
       <c r="Z238" s="1"/>
       <c r="AA238" s="1"/>
     </row>
-    <row r="239" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="239" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
@@ -6118,7 +6164,7 @@
       <c r="Z239" s="1"/>
       <c r="AA239" s="1"/>
     </row>
-    <row r="240" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="240" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
@@ -6140,7 +6186,7 @@
       <c r="Z240" s="1"/>
       <c r="AA240" s="1"/>
     </row>
-    <row r="241" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="241" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
@@ -6162,7 +6208,7 @@
       <c r="Z241" s="1"/>
       <c r="AA241" s="1"/>
     </row>
-    <row r="242" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="242" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
@@ -6184,7 +6230,7 @@
       <c r="Z242" s="1"/>
       <c r="AA242" s="1"/>
     </row>
-    <row r="243" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="243" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
@@ -6206,7 +6252,7 @@
       <c r="Z243" s="1"/>
       <c r="AA243" s="1"/>
     </row>
-    <row r="244" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="244" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
@@ -6228,7 +6274,7 @@
       <c r="Z244" s="1"/>
       <c r="AA244" s="1"/>
     </row>
-    <row r="245" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="245" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
@@ -6250,7 +6296,7 @@
       <c r="Z245" s="1"/>
       <c r="AA245" s="1"/>
     </row>
-    <row r="246" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="246" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
@@ -6272,7 +6318,7 @@
       <c r="Z246" s="1"/>
       <c r="AA246" s="1"/>
     </row>
-    <row r="247" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="247" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
@@ -6294,7 +6340,7 @@
       <c r="Z247" s="1"/>
       <c r="AA247" s="1"/>
     </row>
-    <row r="248" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="248" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
@@ -6316,7 +6362,7 @@
       <c r="Z248" s="1"/>
       <c r="AA248" s="1"/>
     </row>
-    <row r="249" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="249" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H249" s="1"/>
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
@@ -6338,7 +6384,7 @@
       <c r="Z249" s="1"/>
       <c r="AA249" s="1"/>
     </row>
-    <row r="250" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="250" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
@@ -6360,7 +6406,7 @@
       <c r="Z250" s="1"/>
       <c r="AA250" s="1"/>
     </row>
-    <row r="251" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="251" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
@@ -6382,7 +6428,7 @@
       <c r="Z251" s="1"/>
       <c r="AA251" s="1"/>
     </row>
-    <row r="252" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="252" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
@@ -6404,7 +6450,7 @@
       <c r="Z252" s="1"/>
       <c r="AA252" s="1"/>
     </row>
-    <row r="253" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="253" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
@@ -6426,7 +6472,7 @@
       <c r="Z253" s="1"/>
       <c r="AA253" s="1"/>
     </row>
-    <row r="254" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="254" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
@@ -6448,7 +6494,7 @@
       <c r="Z254" s="1"/>
       <c r="AA254" s="1"/>
     </row>
-    <row r="255" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="255" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
@@ -6470,7 +6516,7 @@
       <c r="Z255" s="1"/>
       <c r="AA255" s="1"/>
     </row>
-    <row r="256" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="256" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
@@ -6492,7 +6538,7 @@
       <c r="Z256" s="1"/>
       <c r="AA256" s="1"/>
     </row>
-    <row r="257" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="257" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
@@ -6514,7 +6560,7 @@
       <c r="Z257" s="1"/>
       <c r="AA257" s="1"/>
     </row>
-    <row r="258" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="258" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
@@ -6536,7 +6582,7 @@
       <c r="Z258" s="1"/>
       <c r="AA258" s="1"/>
     </row>
-    <row r="259" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="259" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
@@ -6558,7 +6604,7 @@
       <c r="Z259" s="1"/>
       <c r="AA259" s="1"/>
     </row>
-    <row r="260" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="260" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
@@ -6580,7 +6626,7 @@
       <c r="Z260" s="1"/>
       <c r="AA260" s="1"/>
     </row>
-    <row r="261" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="261" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H261" s="1"/>
       <c r="I261" s="1"/>
       <c r="J261" s="1"/>
@@ -6602,7 +6648,7 @@
       <c r="Z261" s="1"/>
       <c r="AA261" s="1"/>
     </row>
-    <row r="262" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="262" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H262" s="1"/>
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
@@ -6624,7 +6670,7 @@
       <c r="Z262" s="1"/>
       <c r="AA262" s="1"/>
     </row>
-    <row r="263" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="263" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
       <c r="J263" s="1"/>
@@ -6646,7 +6692,7 @@
       <c r="Z263" s="1"/>
       <c r="AA263" s="1"/>
     </row>
-    <row r="264" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="264" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
       <c r="J264" s="1"/>
@@ -6668,7 +6714,7 @@
       <c r="Z264" s="1"/>
       <c r="AA264" s="1"/>
     </row>
-    <row r="265" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="265" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
       <c r="J265" s="1"/>
@@ -6690,7 +6736,7 @@
       <c r="Z265" s="1"/>
       <c r="AA265" s="1"/>
     </row>
-    <row r="266" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="266" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
       <c r="J266" s="1"/>
@@ -6712,7 +6758,7 @@
       <c r="Z266" s="1"/>
       <c r="AA266" s="1"/>
     </row>
-    <row r="267" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="267" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
       <c r="J267" s="1"/>
@@ -6734,7 +6780,7 @@
       <c r="Z267" s="1"/>
       <c r="AA267" s="1"/>
     </row>
-    <row r="268" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="268" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
       <c r="J268" s="1"/>
@@ -6756,7 +6802,7 @@
       <c r="Z268" s="1"/>
       <c r="AA268" s="1"/>
     </row>
-    <row r="269" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="269" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
@@ -6778,7 +6824,7 @@
       <c r="Z269" s="1"/>
       <c r="AA269" s="1"/>
     </row>
-    <row r="270" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="270" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
       <c r="J270" s="1"/>
@@ -6800,7 +6846,7 @@
       <c r="Z270" s="1"/>
       <c r="AA270" s="1"/>
     </row>
-    <row r="271" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="271" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
       <c r="J271" s="1"/>
@@ -6822,7 +6868,7 @@
       <c r="Z271" s="1"/>
       <c r="AA271" s="1"/>
     </row>
-    <row r="272" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="272" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
       <c r="J272" s="1"/>
@@ -6844,7 +6890,7 @@
       <c r="Z272" s="1"/>
       <c r="AA272" s="1"/>
     </row>
-    <row r="273" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="273" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
       <c r="J273" s="1"/>
@@ -6866,7 +6912,7 @@
       <c r="Z273" s="1"/>
       <c r="AA273" s="1"/>
     </row>
-    <row r="274" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="274" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
@@ -6888,7 +6934,7 @@
       <c r="Z274" s="1"/>
       <c r="AA274" s="1"/>
     </row>
-    <row r="275" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="275" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H275" s="1"/>
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
@@ -6910,7 +6956,7 @@
       <c r="Z275" s="1"/>
       <c r="AA275" s="1"/>
     </row>
-    <row r="276" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="276" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
       <c r="J276" s="1"/>
@@ -6932,7 +6978,7 @@
       <c r="Z276" s="1"/>
       <c r="AA276" s="1"/>
     </row>
-    <row r="277" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="277" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H277" s="1"/>
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
@@ -6954,7 +7000,7 @@
       <c r="Z277" s="1"/>
       <c r="AA277" s="1"/>
     </row>
-    <row r="278" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="278" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H278" s="1"/>
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
@@ -6976,7 +7022,7 @@
       <c r="Z278" s="1"/>
       <c r="AA278" s="1"/>
     </row>
-    <row r="279" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="279" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H279" s="1"/>
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
@@ -6998,7 +7044,7 @@
       <c r="Z279" s="1"/>
       <c r="AA279" s="1"/>
     </row>
-    <row r="280" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="280" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H280" s="1"/>
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
@@ -7020,7 +7066,7 @@
       <c r="Z280" s="1"/>
       <c r="AA280" s="1"/>
     </row>
-    <row r="281" spans="8:27" x14ac:dyDescent="0.35">
+    <row r="281" spans="8:27" x14ac:dyDescent="0.2">
       <c r="H281" s="1"/>
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
@@ -7051,26 +7097,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE18554-5576-4948-BE69-1938CEF24C8B}">
-  <dimension ref="B2:F21"/>
+  <dimension ref="B2:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1328125" customWidth="1"/>
-    <col min="2" max="2" width="11.265625" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="7.1328125" customWidth="1"/>
+    <col min="4" max="7" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -7081,7 +7127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>28</v>
       </c>
@@ -7092,7 +7138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>29</v>
       </c>
@@ -7103,7 +7149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -7114,7 +7160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>31</v>
       </c>
@@ -7125,7 +7171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>32</v>
       </c>
@@ -7136,7 +7182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>33</v>
       </c>
@@ -7147,7 +7193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>34</v>
       </c>
@@ -7158,12 +7204,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -7177,7 +7223,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -7191,7 +7237,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -7205,12 +7251,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -7226,8 +7272,17 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20">
+        <v>2030</v>
+      </c>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -7244,6 +7299,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SubRES_Tmpl/SubRES_dem-Transport_trans.xlsx
+++ b/SubRES_Tmpl/SubRES_dem-Transport_trans.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\osemosys_India\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF551A9-477C-4C36-98F3-80B739ED457C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C85CDF-7A13-437A-AB75-02E1A9AD66DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>*</t>
   </si>
@@ -156,12 +156,45 @@
   <si>
     <t>LO</t>
   </si>
+  <si>
+    <t>S1D1</t>
+  </si>
+  <si>
+    <t>S1D2</t>
+  </si>
+  <si>
+    <t>S1D3</t>
+  </si>
+  <si>
+    <t>S1D4</t>
+  </si>
+  <si>
+    <t>S2D1</t>
+  </si>
+  <si>
+    <t>S2D2</t>
+  </si>
+  <si>
+    <t>S2D3</t>
+  </si>
+  <si>
+    <t>S2D4</t>
+  </si>
+  <si>
+    <t>timesilce</t>
+  </si>
+  <si>
+    <t>Trdcar</t>
+  </si>
+  <si>
+    <t>~TFM_INS-TS: attribute=COM_FR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -176,6 +209,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,18 +235,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{D50AE5DE-6174-4DFA-86AF-5DD4DACEC495}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
@@ -7097,10 +7140,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE18554-5576-4948-BE69-1938CEF24C8B}">
-  <dimension ref="B2:I22"/>
+  <dimension ref="B2:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7111,12 +7154,15 @@
     <col min="4" max="7" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -7126,8 +7172,20 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>2021</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>28</v>
       </c>
@@ -7137,8 +7195,20 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="M4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>29</v>
       </c>
@@ -7148,8 +7218,20 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="M5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -7159,8 +7241,20 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="M6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>31</v>
       </c>
@@ -7170,8 +7264,20 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="M7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>32</v>
       </c>
@@ -7181,8 +7287,20 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>33</v>
       </c>
@@ -7192,8 +7310,20 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>34</v>
       </c>
@@ -7203,13 +7333,39 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -7223,7 +7379,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -7237,7 +7393,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>15</v>
       </c>

--- a/SubRES_Tmpl/SubRES_dem-Transport_trans.xlsx
+++ b/SubRES_Tmpl/SubRES_dem-Transport_trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\osemosys_India\SubRES_Tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C85CDF-7A13-437A-AB75-02E1A9AD66DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAD8014-AD5D-4840-8053-9870A97101B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,13 +181,13 @@
     <t>S2D4</t>
   </si>
   <si>
-    <t>timesilce</t>
-  </si>
-  <si>
     <t>Trdcar</t>
   </si>
   <si>
     <t>~TFM_INS-TS: attribute=COM_FR</t>
+  </si>
+  <si>
+    <t>timeslice</t>
   </si>
 </sst>
 </file>
@@ -7143,7 +7143,7 @@
   <dimension ref="B2:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7159,7 +7159,7 @@
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
@@ -7173,7 +7173,7 @@
         <v>3</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N3" t="s">
         <v>3</v>
@@ -7199,7 +7199,7 @@
         <v>40</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O4" s="3">
         <v>0.12</v>
@@ -7222,7 +7222,7 @@
         <v>41</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O5" s="3">
         <v>0.12</v>
@@ -7245,7 +7245,7 @@
         <v>42</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O6" s="3">
         <v>0.12</v>
@@ -7268,7 +7268,7 @@
         <v>43</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O7" s="3">
         <v>0.12</v>
@@ -7291,7 +7291,7 @@
         <v>44</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O8" s="3">
         <v>0.13</v>
@@ -7314,7 +7314,7 @@
         <v>45</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O9" s="3">
         <v>0.13</v>
@@ -7337,7 +7337,7 @@
         <v>46</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O10" s="3">
         <v>0.13</v>
@@ -7351,7 +7351,7 @@
         <v>47</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O11" s="3">
         <v>0.12</v>
